--- a/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Drafts/Drafting Points.xlsx
+++ b/AE Zaid/Satkhira DV-II/2021_22/Regulator/Bain Basat Regulator/Drafts/Drafting Points.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,7 +381,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>4</v>
       </c>
       <c r="C2" s="1">
